--- a/Output/Classifier Evaluation/Logistic Regression/Logistic_Regression_Classifier_Predictions_All_Features_PCA_Classification_Report.xlsx
+++ b/Output/Classifier Evaluation/Logistic Regression/Logistic_Regression_Classifier_Predictions_All_Features_PCA_Classification_Report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +468,7 @@
         <v>0.8637992831541219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8844036697247706</v>
+        <v>0.8844036697247707</v>
       </c>
       <c r="E2" t="n">
         <v>279</v>
@@ -525,7 +525,7 @@
         <v>0.9551724137931035</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9172185430463577</v>
+        <v>0.9172185430463576</v>
       </c>
       <c r="E5" t="n">
         <v>580</v>
@@ -563,7 +563,7 @@
         <v>0.8653627277137527</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8795108160045689</v>
+        <v>0.879510816004569</v>
       </c>
       <c r="E7" t="n">
         <v>1489</v>
@@ -582,7 +582,7 @@
         <v>0.890530557421088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8894984483463536</v>
+        <v>0.8894984483463537</v>
       </c>
       <c r="E8" t="n">
         <v>1489</v>
